--- a/99_review/review5/06_レビュー結果記録(分析2).xlsx
+++ b/99_review/review5/06_レビュー結果記録(分析2).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6E7F22-6959-4AE3-AFE7-C1DDFF87CED1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1558D875-7B68-431C-933E-9C4D49F072D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
@@ -461,13 +461,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>修正します</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>反映する</t>
     <rPh sb="0" eb="2">
       <t>ハンエイ</t>
@@ -491,7 +484,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>反復1の設計へ移行するための課題・対応策を明確にする。(合格)</t>
+    <t>反復1の設計へ移行するための課題・対応策を明確にする。(不合格)</t>
     <rPh sb="0" eb="2">
       <t>ハンプク</t>
     </rPh>
@@ -513,8 +506,31 @@
     <rPh sb="21" eb="23">
       <t>メイカク</t>
     </rPh>
-    <rPh sb="28" eb="30">
-      <t>ゴウカク</t>
+    <rPh sb="28" eb="31">
+      <t>フゴウカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正します。
+戻り値を配列にしてｘ、ｙの座標を返すようにする</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -926,57 +942,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1427,8 +1443,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1440,10 +1456,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
@@ -1452,10 +1468,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="8" t="s">
         <v>43</v>
       </c>
@@ -1464,12 +1480,12 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
@@ -1480,50 +1496,50 @@
       <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1532,10 +1548,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="15" t="s">
         <v>37</v>
       </c>
@@ -1544,10 +1560,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="15" t="s">
         <v>37</v>
       </c>
@@ -1556,50 +1572,50 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
     </row>
@@ -1614,17 +1630,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -1635,6 +1640,17 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1654,8 +1670,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1707,10 +1723,12 @@
       <c r="E2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="10">
+        <v>43986</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
@@ -1729,9 +1747,11 @@
         <v>45</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="G3" s="10">
+        <v>43986</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
@@ -1750,9 +1770,11 @@
         <v>45</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="G4" s="10">
+        <v>43986</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
@@ -1771,9 +1793,11 @@
         <v>45</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="G5" s="10">
+        <v>43986</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
@@ -1785,9 +1809,9 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
@@ -1802,18 +1826,18 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="34"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1965,10 +1989,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
@@ -1977,10 +2001,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="8" t="s">
         <v>35</v>
       </c>
@@ -1990,12 +2014,12 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
@@ -2006,34 +2030,34 @@
       <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
@@ -2046,10 +2070,10 @@
       <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
@@ -2058,10 +2082,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="15" t="s">
         <v>27</v>
       </c>
@@ -2070,10 +2094,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="15" t="s">
         <v>17</v>
       </c>
@@ -2082,10 +2106,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="15" t="s">
         <v>27</v>
       </c>
@@ -2094,44 +2118,44 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
     </row>
@@ -2146,18 +2170,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -2167,6 +2179,18 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2635,18 +2659,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2668,14 +2692,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2689,4 +2705,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>